--- a/point_disorder_paper/figures/peak_results.xlsx
+++ b/point_disorder_paper/figures/peak_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rsjon_000\Documents\point-disorder\point_disorder_paper\figures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE733CED-5C09-47E8-8AA1-3D0902436ED8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BEA6A50-AD7A-49A2-B837-5AF1DC7D23AF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11746" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>Study Area</t>
   </si>
@@ -44,10 +44,6 @@
 (sheds, detached garages)</t>
   </si>
   <si>
-    <t>Primary buildings
-(homes and commerical buildings)</t>
-  </si>
-  <si>
     <t>Reforested zone</t>
   </si>
   <si>
@@ -61,6 +57,14 @@
   <si>
     <t>Lockeland Springs neighborhood
 in East Nashville, TN</t>
+  </si>
+  <si>
+    <t>Corresponding
+Accuracy</t>
+  </si>
+  <si>
+    <t>Major buildings
+(homes and commerical buildings)</t>
   </si>
 </sst>
 </file>
@@ -559,7 +563,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -572,6 +576,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -928,10 +941,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:E5"/>
+  <dimension ref="B2:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E5" sqref="B2:E5"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -939,10 +952,11 @@
     <col min="2" max="2" width="26.9296875" customWidth="1"/>
     <col min="3" max="3" width="22.1328125" customWidth="1"/>
     <col min="4" max="4" width="29.06640625" customWidth="1"/>
-    <col min="5" max="5" width="7.46484375" customWidth="1"/>
+    <col min="5" max="5" width="12.3984375" style="8" customWidth="1"/>
+    <col min="6" max="6" width="13.86328125" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:6" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
@@ -955,10 +969,13 @@
       <c r="E2" s="4" t="s">
         <v>1</v>
       </c>
+      <c r="F2" s="9" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="3" spans="2:5" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:6" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B3" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
@@ -969,33 +986,42 @@
       <c r="E3" s="5">
         <v>0.81</v>
       </c>
+      <c r="F3" s="5">
+        <v>0.96</v>
+      </c>
     </row>
-    <row r="4" spans="2:5" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:6" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B4" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E4" s="5">
         <v>0.74</v>
       </c>
+      <c r="F4" s="5">
+        <v>0.87</v>
+      </c>
     </row>
-    <row r="5" spans="2:5" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:6" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B5" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E5" s="5">
         <v>0.43</v>
+      </c>
+      <c r="F5" s="7">
+        <v>0.75</v>
       </c>
     </row>
   </sheetData>

--- a/point_disorder_paper/figures/peak_results.xlsx
+++ b/point_disorder_paper/figures/peak_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rsjon_000\Documents\point-disorder\point_disorder_paper\figures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BEA6A50-AD7A-49A2-B837-5AF1DC7D23AF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9378CFB-32F5-4A39-B50F-AD80494C9F8D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11746" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -944,7 +944,7 @@
   <dimension ref="B2:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="F5" sqref="B2:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1018,10 +1018,10 @@
         <v>12</v>
       </c>
       <c r="E5" s="5">
-        <v>0.43</v>
+        <v>0.44</v>
       </c>
       <c r="F5" s="7">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
     </row>
   </sheetData>

--- a/point_disorder_paper/figures/peak_results.xlsx
+++ b/point_disorder_paper/figures/peak_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rsjon_000\Documents\point-disorder\point_disorder_paper\figures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9378CFB-32F5-4A39-B50F-AD80494C9F8D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA30F5D3-30D0-4891-B305-3E9AEB7886F6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11746" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -47,24 +47,27 @@
     <t>Reforested zone</t>
   </si>
   <si>
-    <t>Reforested area near
-Atwell Airport, Mooresville, NC</t>
-  </si>
-  <si>
     <t>Rowell's Apple House
 near Crab Orchard, TN</t>
   </si>
   <si>
-    <t>Lockeland Springs neighborhood
-in East Nashville, TN</t>
-  </si>
-  <si>
     <t>Corresponding
 Accuracy</t>
   </si>
   <si>
+    <t>Lockeland Springs
+neighborhood
+in East Nashville, TN</t>
+  </si>
+  <si>
+    <t>Reforested area near
+Atwell Airport,
+Mooresville, NC</t>
+  </si>
+  <si>
     <t>Major buildings
-(homes and commerical buildings)</t>
+(homes and
+commerical buildings)</t>
   </si>
 </sst>
 </file>
@@ -944,16 +947,16 @@
   <dimension ref="B2:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F5" sqref="B2:F5"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="26.9296875" customWidth="1"/>
-    <col min="3" max="3" width="22.1328125" customWidth="1"/>
-    <col min="4" max="4" width="29.06640625" customWidth="1"/>
-    <col min="5" max="5" width="12.3984375" style="8" customWidth="1"/>
-    <col min="6" max="6" width="13.86328125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="18.53125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
@@ -970,12 +973,12 @@
         <v>1</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="2:6" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B3" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
@@ -990,9 +993,9 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="4" spans="2:6" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:6" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B4" s="6" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
@@ -1007,7 +1010,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="5" spans="2:6" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:6" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B5" s="6" t="s">
         <v>10</v>
       </c>

--- a/point_disorder_paper/figures/peak_results.xlsx
+++ b/point_disorder_paper/figures/peak_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rsjon_000\Documents\point-disorder\point_disorder_paper\figures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA30F5D3-30D0-4891-B305-3E9AEB7886F6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8797B95D-2908-40FA-8394-049FAE627B24}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11746" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -47,27 +47,24 @@
     <t>Reforested zone</t>
   </si>
   <si>
-    <t>Rowell's Apple House
-near Crab Orchard, TN</t>
-  </si>
-  <si>
     <t>Corresponding
 Accuracy</t>
-  </si>
-  <si>
-    <t>Lockeland Springs
-neighborhood
-in East Nashville, TN</t>
-  </si>
-  <si>
-    <t>Reforested area near
-Atwell Airport,
-Mooresville, NC</t>
   </si>
   <si>
     <t>Major buildings
 (homes and
 commerical buildings)</t>
+  </si>
+  <si>
+    <t>Neighborhood
+in Nashville, TN</t>
+  </si>
+  <si>
+    <t>Reforested are in
+Mooresville, NC</t>
+  </si>
+  <si>
+    <t>Orchard in Crab Orchard, TN</t>
   </si>
 </sst>
 </file>
@@ -947,7 +944,7 @@
   <dimension ref="B2:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -973,12 +970,12 @@
         <v>1</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="2:6" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B3" s="6" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
@@ -993,7 +990,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="4" spans="2:6" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:6" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B4" s="6" t="s">
         <v>11</v>
       </c>
@@ -1018,7 +1015,7 @@
         <v>6</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E5" s="5">
         <v>0.44</v>

--- a/point_disorder_paper/figures/peak_results.xlsx
+++ b/point_disorder_paper/figures/peak_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rsjon_000\Documents\point-disorder\point_disorder_paper\figures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8797B95D-2908-40FA-8394-049FAE627B24}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{145B2E37-71B5-4AA5-9457-655E457C41F0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11746" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -60,11 +60,11 @@
 in Nashville, TN</t>
   </si>
   <si>
-    <t>Reforested are in
+    <t>Orchard in Crab Orchard, TN</t>
+  </si>
+  <si>
+    <t>Reforested area in
 Mooresville, NC</t>
-  </si>
-  <si>
-    <t>Orchard in Crab Orchard, TN</t>
   </si>
 </sst>
 </file>
@@ -944,7 +944,7 @@
   <dimension ref="B2:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="F5" sqref="B2:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -975,7 +975,7 @@
     </row>
     <row r="3" spans="2:6" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B3" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
@@ -992,7 +992,7 @@
     </row>
     <row r="4" spans="2:6" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B4" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
